--- a/data/trans_orig/P14A32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D19286-7B38-4003-8F1F-2CA2A702E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC13DB2-D5AA-468F-AF2A-1D74AA37905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0ECDE4F-A232-4BB0-B8A8-94C2BC9A79C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0AE138-5D5B-412C-BDB6-7512C5E35915}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="186">
   <si>
     <t>Población que recibe medicación o terapia por incontinencia urinaria en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -111,37 +111,37 @@
     <t>23,52%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -150,7 +150,7 @@
     <t>84,48%</t>
   </si>
   <si>
-    <t>36,81%</t>
+    <t>40,42%</t>
   </si>
   <si>
     <t>46,56%</t>
@@ -165,16 +165,16 @@
     <t>58,37%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>63,19%</t>
+    <t>59,58%</t>
   </si>
   <si>
     <t>53,44%</t>
@@ -189,10 +189,10 @@
     <t>41,63%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -201,7 +201,7 @@
     <t>33,71%</t>
   </si>
   <si>
-    <t>83,03%</t>
+    <t>83,69%</t>
   </si>
   <si>
     <t>49,79%</t>
@@ -216,16 +216,16 @@
     <t>43,86%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>50,21%</t>
@@ -240,10 +240,10 @@
     <t>56,14%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -261,19 +261,19 @@
     <t>33,74%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>44,13%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>36,35%</t>
@@ -288,73 +288,73 @@
     <t>66,26%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>55,87%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -423,19 +423,19 @@
     <t>62,13%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>49,72%</t>
@@ -450,19 +450,19 @@
     <t>37,87%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>23,05%</t>
@@ -516,91 +516,85 @@
     <t>43,71%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>52,07%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>60,07%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>39,93%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6641083-AB02-44BA-88D6-F4293D3CD6B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D7D8DA-11DB-4EB3-A42A-8EB566413AF0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2075,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A463F7-98F7-4078-95D9-F854907A0CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010C285-320A-4CD9-A978-89424E0CF5EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2992,10 +2986,10 @@
         <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3004,13 +2998,13 @@
         <v>34848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3019,13 @@
         <v>6567</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -3040,13 +3034,13 @@
         <v>27370</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -3055,13 +3049,13 @@
         <v>33938</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC13DB2-D5AA-468F-AF2A-1D74AA37905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D0D0A4-14EA-445A-AF35-2023FA59CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0AE138-5D5B-412C-BDB6-7512C5E35915}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD4700A-1038-463D-A32C-833AF5DA669E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,46 +105,46 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,48%</t>
@@ -156,19 +156,19 @@
     <t>46,56%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>15,52%</t>
@@ -180,70 +180,70 @@
     <t>53,44%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>83,69%</t>
+    <t>83,16%</t>
   </si>
   <si>
     <t>49,79%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>16,84%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -252,73 +252,73 @@
     <t>63,65%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>44,13%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>55,87%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>43,46%</t>
@@ -327,31 +327,31 @@
     <t>31,75%</t>
   </si>
   <si>
-    <t>54,49%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>45,51%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>68,25%</t>
@@ -360,109 +360,109 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>17,57%</t>
+    <t>36,25%</t>
   </si>
   <si>
     <t>47,18%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>82,43%</t>
+    <t>63,75%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>23,05%</t>
@@ -474,19 +474,16 @@
     <t>27,58%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>76,95%</t>
@@ -498,103 +495,106 @@
     <t>72,42%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>92,58%</t>
   </si>
   <si>
     <t>43,71%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>52,07%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D7D8DA-11DB-4EB3-A42A-8EB566413AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04860F60-7DB2-4547-954F-E67B184B4507}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2069,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010C285-320A-4CD9-A978-89424E0CF5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06245E-F259-425D-9223-FEB764E9859C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,7 +2694,7 @@
         <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,10 +2709,10 @@
         <v>2972</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2724,13 +2724,13 @@
         <v>9409</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2739,13 +2739,13 @@
         <v>12381</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2828,13 @@
         <v>6587</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2843,13 +2843,13 @@
         <v>9215</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2879,13 @@
         <v>8483</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2894,13 +2894,13 @@
         <v>8482</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>10949</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2983,13 +2983,13 @@
         <v>23900</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2998,13 +2998,13 @@
         <v>34848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3019,13 @@
         <v>6567</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -3034,13 +3034,13 @@
         <v>27370</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
